--- a/reports/_BTB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_46_.xlsx
+++ b/reports/_BTB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_46_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -812,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="71.28988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="71.28988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="48.18988764044945"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1044,7 +1563,7 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-06-28T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1066,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1445786</v>
       </c>
@@ -1102,120 +1621,41 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>37025</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>APLU6946896</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="d">
-        <v>2018-06-28T00:00:00</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
       <c r="O7" s="0"/>
-      <c r="P7" s="0" t="n">
-        <v>158</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
       <c r="S7" s="0"/>
       <c r="T7" s="0"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="0" t="n">
-        <v>1445786</v>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
       <c r="X7" s="0" t="inlineStr">
         <is>
-          <t>Left side panel-(Left side panel)</t>
-        </is>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
           <t>LEFT SIDE PANEL CUT 6" (GUM FITTINGS)</t>
         </is>
       </c>
-      <c r="Z7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>37630</v>
@@ -1326,120 +1766,41 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>37630</v>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>EMCU3636842</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t>XPRESS LHOTSE  V-18051</t>
-        </is>
-      </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>2018/2518</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="d">
-        <v>2018-09-01T00:00:00</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
       <c r="O9" s="0"/>
-      <c r="P9" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="0" t="n">
-        <v>1473441</v>
-      </c>
-      <c r="W9" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
       <c r="X9" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y9" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCK BAR BENT 01 PCS</t>
         </is>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>37683</v>
@@ -1527,7 +1888,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>37775</v>
@@ -1638,120 +1999,41 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>37775</v>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>TTNU3925281</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
-        <is>
-          <t>	MV.X-PRESS LHOTSE</t>
-        </is>
-      </c>
-      <c r="K12" s="0" t="inlineStr">
-        <is>
-          <t>2018/2518</t>
-        </is>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M12" s="4" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="0" t="n">
-        <v>1474425</v>
-      </c>
-      <c r="W12" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y12" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR BOTTOM GASKET LOOSE FULLY</t>
         </is>
       </c>
-      <c r="Z12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>38195</v>
@@ -1863,7 +2145,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>38196</v>
@@ -1974,232 +2256,74 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>38196</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>PCIU3984141</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="inlineStr">
-        <is>
-          <t>MCC QINGDAO</t>
-        </is>
-      </c>
-      <c r="K15" s="0" t="inlineStr">
-        <is>
-          <t>2018/2185</t>
-        </is>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M15" s="4" t="d">
-        <v>2018-09-08T00:00:00</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="0" t="n">
-        <v>1476634</v>
-      </c>
-      <c r="W15" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y15" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY &amp; RUSTED</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>38196</v>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>PCIU3984141</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="inlineStr">
-        <is>
-          <t>MCC QINGDAO</t>
-        </is>
-      </c>
-      <c r="K16" s="0" t="inlineStr">
-        <is>
-          <t>2018/2185</t>
-        </is>
-      </c>
-      <c r="L16" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M16" s="4" t="d">
-        <v>2018-09-08T00:00:00</v>
-      </c>
-      <c r="N16" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
       <c r="O16" s="0"/>
-      <c r="P16" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="0" t="n">
-        <v>1476634</v>
-      </c>
-      <c r="W16" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
       <c r="X16" s="0" t="inlineStr">
         <is>
-          <t>Front panel -(Front panel )</t>
-        </is>
-      </c>
-      <c r="Y16" s="0" t="inlineStr">
-        <is>
           <t>FRONT PANEL DENTED 36"X36"</t>
         </is>
       </c>
-      <c r="Z16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>39023</v>
@@ -2311,7 +2435,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>39028</v>
@@ -2423,7 +2547,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>37425</v>
@@ -2535,7 +2659,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>37499</v>
@@ -2647,7 +2771,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>37500</v>
@@ -2758,120 +2882,41 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>37500</v>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>TTNU3875093</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G22" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="inlineStr">
-        <is>
-          <t>HAPPY BEE   V-815E</t>
-        </is>
-      </c>
-      <c r="K22" s="0" t="inlineStr">
-        <is>
-          <t>2018/2555</t>
-        </is>
-      </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M22" s="4" t="d">
-        <v>2018-08-30T00:00:00</v>
-      </c>
-      <c r="N22" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
       <c r="O22" s="0"/>
-      <c r="P22" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="0" t="n">
-        <v>1472452</v>
-      </c>
-      <c r="W22" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
       <c r="X22" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y22" s="0" t="inlineStr">
-        <is>
           <t>INTERIRO PANEL DIRTY SCRATCHED</t>
         </is>
       </c>
-      <c r="Z22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>37501</v>
@@ -2982,232 +3027,74 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>37501</v>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>CAXU2941920</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G24" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H24" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I24" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J24" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K24" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L24" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M24" s="4" t="d">
-        <v>2018-08-30T00:00:00</v>
-      </c>
-      <c r="N24" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="0"/>
       <c r="O24" s="0"/>
-      <c r="P24" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
       <c r="S24" s="0"/>
       <c r="T24" s="0"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="0" t="n">
-        <v>1472453</v>
-      </c>
-      <c r="W24" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
       <c r="X24" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y24" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD WOOD FITTING 05 PCS &amp; SCRWO MISSING 6 PCS</t>
         </is>
       </c>
-      <c r="Z24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>37501</v>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>CAXU2941920</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G25" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J25" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K25" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L25" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="d">
-        <v>2018-08-30T00:00:00</v>
-      </c>
-      <c r="N25" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
       <c r="O25" s="0"/>
-      <c r="P25" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="Q25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="0" t="n">
-        <v>1472453</v>
-      </c>
-      <c r="W25" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
       <c r="X25" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y25" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR LOCKING BAR BENT 01 PCS</t>
         </is>
       </c>
-      <c r="Z25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>37557</v>
@@ -3318,120 +3205,41 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>37557</v>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>TTNU1720805</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G27" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H27" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I27" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J27" s="0" t="inlineStr">
-        <is>
-          <t>KOTA WARIS  V-9001W</t>
-        </is>
-      </c>
-      <c r="K27" s="0" t="inlineStr">
-        <is>
-          <t>2018/2476</t>
-        </is>
-      </c>
-      <c r="L27" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M27" s="4" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="N27" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="0"/>
       <c r="O27" s="0"/>
-      <c r="P27" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="0" t="n">
-        <v>1472907</v>
-      </c>
-      <c r="W27" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
       <c r="X27" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y27" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD WOOD FITTING 04 PEC</t>
         </is>
       </c>
-      <c r="Z27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>36902</v>
@@ -3519,7 +3327,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>36938</v>
@@ -3630,456 +3438,140 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>36938</v>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>TGHU2109174</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E30" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G30" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H30" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I30" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J30" s="0" t="inlineStr">
-        <is>
-          <t>MV. WEST SCENT</t>
-        </is>
-      </c>
-      <c r="K30" s="0" t="inlineStr">
-        <is>
-          <t>2018/1285</t>
-        </is>
-      </c>
-      <c r="L30" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M30" s="4" t="d">
-        <v>2018-05-01T00:00:00</v>
-      </c>
-      <c r="N30" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
       <c r="O30" s="0"/>
-      <c r="P30" s="0" t="n">
-        <v>216</v>
-      </c>
-      <c r="Q30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="0" t="n">
-        <v>1422860</v>
-      </c>
-      <c r="W30" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
       <c r="X30" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y30" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD BROKEN 12"X12" AT 2 PLASE,</t>
         </is>
       </c>
-      <c r="Z30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>36938</v>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>TGHU2109174</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E31" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G31" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H31" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I31" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J31" s="0" t="inlineStr">
-        <is>
-          <t>MV. WEST SCENT</t>
-        </is>
-      </c>
-      <c r="K31" s="0" t="inlineStr">
-        <is>
-          <t>2018/1285</t>
-        </is>
-      </c>
-      <c r="L31" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M31" s="4" t="d">
-        <v>2018-05-01T00:00:00</v>
-      </c>
-      <c r="N31" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="0"/>
       <c r="O31" s="0"/>
-      <c r="P31" s="0" t="n">
-        <v>216</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="0" t="n">
-        <v>1422860</v>
-      </c>
-      <c r="W31" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
       <c r="X31" s="0" t="inlineStr">
         <is>
-          <t>Roof panel-(Roof panel)</t>
-        </is>
-      </c>
-      <c r="Y31" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL CUT 8"</t>
         </is>
       </c>
-      <c r="Z31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>36938</v>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>TGHU2109174</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E32" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G32" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H32" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I32" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J32" s="0" t="inlineStr">
-        <is>
-          <t>MV. WEST SCENT</t>
-        </is>
-      </c>
-      <c r="K32" s="0" t="inlineStr">
-        <is>
-          <t>2018/1285</t>
-        </is>
-      </c>
-      <c r="L32" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M32" s="4" t="d">
-        <v>2018-05-01T00:00:00</v>
-      </c>
-      <c r="N32" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="0"/>
       <c r="O32" s="0"/>
-      <c r="P32" s="0" t="n">
-        <v>216</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
       <c r="S32" s="0"/>
       <c r="T32" s="0"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="0" t="n">
-        <v>1422860</v>
-      </c>
-      <c r="W32" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
       <c r="X32" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y32" s="0" t="inlineStr">
-        <is>
           <t>RIGHT SIDE PANEL CUT 4" AT 3 PLASE,</t>
         </is>
       </c>
-      <c r="Z32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>36938</v>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>TGHU2109174</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E33" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G33" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H33" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I33" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J33" s="0" t="inlineStr">
-        <is>
-          <t>MV. WEST SCENT</t>
-        </is>
-      </c>
-      <c r="K33" s="0" t="inlineStr">
-        <is>
-          <t>2018/1285</t>
-        </is>
-      </c>
-      <c r="L33" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M33" s="4" t="d">
-        <v>2018-05-01T00:00:00</v>
-      </c>
-      <c r="N33" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="0"/>
       <c r="O33" s="0"/>
-      <c r="P33" s="0" t="n">
-        <v>216</v>
-      </c>
-      <c r="Q33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
       <c r="S33" s="0"/>
       <c r="T33" s="0"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="0" t="n">
-        <v>1422860</v>
-      </c>
-      <c r="W33" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
       <c r="X33" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y33" s="0" t="inlineStr">
-        <is>
           <t>BOTH DOOR HINGS BENT 4 PCS(DOOR UN LOCK)</t>
         </is>
       </c>
-      <c r="Z33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>36939</v>
@@ -4190,568 +3682,173 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>36939</v>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>GATU0798040</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E35" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G35" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H35" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I35" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J35" s="0" t="inlineStr">
-        <is>
-          <t>MV. WEST SCENT</t>
-        </is>
-      </c>
-      <c r="K35" s="0" t="inlineStr">
-        <is>
-          <t>2018/1285</t>
-        </is>
-      </c>
-      <c r="L35" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M35" s="4" t="d">
-        <v>2018-05-01T00:00:00</v>
-      </c>
-      <c r="N35" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
       <c r="O35" s="0"/>
-      <c r="P35" s="0" t="n">
-        <v>216</v>
-      </c>
-      <c r="Q35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="0" t="n">
-        <v>1422862</v>
-      </c>
-      <c r="W35" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
       <c r="X35" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y35" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD PICKUP 24"X24"</t>
         </is>
       </c>
-      <c r="Z35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>36939</v>
-      </c>
-      <c r="C36" s="0" t="inlineStr">
-        <is>
-          <t>GATU0798040</t>
-        </is>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E36" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G36" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H36" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I36" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J36" s="0" t="inlineStr">
-        <is>
-          <t>MV. WEST SCENT</t>
-        </is>
-      </c>
-      <c r="K36" s="0" t="inlineStr">
-        <is>
-          <t>2018/1285</t>
-        </is>
-      </c>
-      <c r="L36" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M36" s="4" t="d">
-        <v>2018-05-01T00:00:00</v>
-      </c>
-      <c r="N36" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="0"/>
       <c r="O36" s="0"/>
-      <c r="P36" s="0" t="n">
-        <v>216</v>
-      </c>
-      <c r="Q36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
       <c r="S36" s="0"/>
       <c r="T36" s="0"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="0" t="n">
-        <v>1422862</v>
-      </c>
-      <c r="W36" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V36" s="0"/>
+      <c r="W36" s="0"/>
       <c r="X36" s="0" t="inlineStr">
         <is>
-          <t>Front panel -(Front panel )</t>
-        </is>
-      </c>
-      <c r="Y36" s="0" t="inlineStr">
-        <is>
           <t>FRONT PANEL CUT 2"</t>
         </is>
       </c>
-      <c r="Z36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y36" s="0"/>
+      <c r="Z36" s="0"/>
+      <c r="AA36" s="0"/>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>36939</v>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>GATU0798040</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E37" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G37" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H37" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I37" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J37" s="0" t="inlineStr">
-        <is>
-          <t>MV. WEST SCENT</t>
-        </is>
-      </c>
-      <c r="K37" s="0" t="inlineStr">
-        <is>
-          <t>2018/1285</t>
-        </is>
-      </c>
-      <c r="L37" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M37" s="4" t="d">
-        <v>2018-05-01T00:00:00</v>
-      </c>
-      <c r="N37" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="0"/>
       <c r="O37" s="0"/>
-      <c r="P37" s="0" t="n">
-        <v>216</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="0" t="n">
-        <v>1422862</v>
-      </c>
-      <c r="W37" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0"/>
       <c r="X37" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y37" s="0" t="inlineStr">
-        <is>
           <t>RIGHT SIDE PANEL CUT 2"X2" AT 4 PLASE,</t>
         </is>
       </c>
-      <c r="Z37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y37" s="0"/>
+      <c r="Z37" s="0"/>
+      <c r="AA37" s="0"/>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>36939</v>
-      </c>
-      <c r="C38" s="0" t="inlineStr">
-        <is>
-          <t>GATU0798040</t>
-        </is>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E38" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G38" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H38" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I38" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J38" s="0" t="inlineStr">
-        <is>
-          <t>MV. WEST SCENT</t>
-        </is>
-      </c>
-      <c r="K38" s="0" t="inlineStr">
-        <is>
-          <t>2018/1285</t>
-        </is>
-      </c>
-      <c r="L38" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M38" s="4" t="d">
-        <v>2018-05-01T00:00:00</v>
-      </c>
-      <c r="N38" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="0"/>
       <c r="O38" s="0"/>
-      <c r="P38" s="0" t="n">
-        <v>216</v>
-      </c>
-      <c r="Q38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
       <c r="S38" s="0"/>
       <c r="T38" s="0"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="0" t="n">
-        <v>1422862</v>
-      </c>
-      <c r="W38" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V38" s="0"/>
+      <c r="W38" s="0"/>
       <c r="X38" s="0" t="inlineStr">
         <is>
-          <t>Left side panel-(Left side panel)</t>
-        </is>
-      </c>
-      <c r="Y38" s="0" t="inlineStr">
-        <is>
           <t>LEFT SIDE PANEL CUT 2"X2"</t>
         </is>
       </c>
-      <c r="Z38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y38" s="0"/>
+      <c r="Z38" s="0"/>
+      <c r="AA38" s="0"/>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>36939</v>
-      </c>
-      <c r="C39" s="0" t="inlineStr">
-        <is>
-          <t>GATU0798040</t>
-        </is>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E39" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F39" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G39" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H39" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I39" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J39" s="0" t="inlineStr">
-        <is>
-          <t>MV. WEST SCENT</t>
-        </is>
-      </c>
-      <c r="K39" s="0" t="inlineStr">
-        <is>
-          <t>2018/1285</t>
-        </is>
-      </c>
-      <c r="L39" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M39" s="4" t="d">
-        <v>2018-05-01T00:00:00</v>
-      </c>
-      <c r="N39" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="0"/>
       <c r="O39" s="0"/>
-      <c r="P39" s="0" t="n">
-        <v>216</v>
-      </c>
-      <c r="Q39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
+      <c r="R39" s="0"/>
       <c r="S39" s="0"/>
       <c r="T39" s="0"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="0" t="n">
-        <v>1422862</v>
-      </c>
-      <c r="W39" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V39" s="0"/>
+      <c r="W39" s="0"/>
       <c r="X39" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y39" s="0" t="inlineStr">
-        <is>
           <t>BOTH SIDE PANEL PUSH OUT 40"X40"</t>
         </is>
       </c>
-      <c r="Z39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y39" s="0"/>
+      <c r="Z39" s="0"/>
+      <c r="AA39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>36985</v>
@@ -4839,7 +3936,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>36989</v>
@@ -4927,7 +4024,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>37008</v>
@@ -5038,232 +4135,74 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>37008</v>
-      </c>
-      <c r="C43" s="0" t="inlineStr">
-        <is>
-          <t>TRIU8339647</t>
-        </is>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E43" s="0" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G43" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H43" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I43" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J43" s="0" t="inlineStr">
-        <is>
-          <t>YM INVENTIVE  V-239N</t>
-        </is>
-      </c>
-      <c r="K43" s="0" t="inlineStr">
-        <is>
-          <t>2018/1717</t>
-        </is>
-      </c>
-      <c r="L43" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M43" s="4" t="d">
-        <v>2018-06-22T00:00:00</v>
-      </c>
-      <c r="N43" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A43" s="0"/>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="0"/>
       <c r="O43" s="0"/>
-      <c r="P43" s="0" t="n">
-        <v>164</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="0" t="n">
-        <v>1443155</v>
-      </c>
-      <c r="W43" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0"/>
       <c r="X43" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y43" s="0" t="inlineStr">
-        <is>
           <t>RIGHT SIDE PANEL CUT 2" &amp; LEFT SIDE PANEL CUT 2" AT  2 PLC </t>
         </is>
       </c>
-      <c r="Z43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y43" s="0"/>
+      <c r="Z43" s="0"/>
+      <c r="AA43" s="0"/>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>37008</v>
-      </c>
-      <c r="C44" s="0" t="inlineStr">
-        <is>
-          <t>TRIU8339647</t>
-        </is>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E44" s="0" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G44" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H44" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I44" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J44" s="0" t="inlineStr">
-        <is>
-          <t>YM INVENTIVE  V-239N</t>
-        </is>
-      </c>
-      <c r="K44" s="0" t="inlineStr">
-        <is>
-          <t>2018/1717</t>
-        </is>
-      </c>
-      <c r="L44" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M44" s="4" t="d">
-        <v>2018-06-22T00:00:00</v>
-      </c>
-      <c r="N44" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A44" s="0"/>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="0"/>
       <c r="O44" s="0"/>
-      <c r="P44" s="0" t="n">
-        <v>164</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
       <c r="S44" s="0"/>
       <c r="T44" s="0"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="0" t="n">
-        <v>1443155</v>
-      </c>
-      <c r="W44" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V44" s="0"/>
+      <c r="W44" s="0"/>
       <c r="X44" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y44" s="0" t="inlineStr">
-        <is>
           <t>BOTH OUT SIDE PANEL TWISTED </t>
         </is>
       </c>
-      <c r="Z44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y44" s="0"/>
+      <c r="Z44" s="0"/>
+      <c r="AA44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>37700</v>
@@ -5374,120 +4313,41 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>37700</v>
-      </c>
-      <c r="C46" s="0" t="inlineStr">
-        <is>
-          <t>TTNU3124153</t>
-        </is>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E46" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F46" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="G46" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="H46" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I46" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J46" s="0" t="inlineStr">
-        <is>
-          <t>	MV.X-PRESS LHOTSE</t>
-        </is>
-      </c>
-      <c r="K46" s="0" t="inlineStr">
-        <is>
-          <t>	2018/2518</t>
-        </is>
-      </c>
-      <c r="L46" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M46" s="4" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="N46" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A46" s="0"/>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="0"/>
       <c r="O46" s="0"/>
-      <c r="P46" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="Q46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P46" s="0"/>
+      <c r="Q46" s="0"/>
+      <c r="R46" s="0"/>
       <c r="S46" s="0"/>
       <c r="T46" s="0"/>
       <c r="U46" s="4"/>
-      <c r="V46" s="0" t="n">
-        <v>1473922</v>
-      </c>
-      <c r="W46" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V46" s="0"/>
+      <c r="W46" s="0"/>
       <c r="X46" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y46" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR BOTTOM GASKET CUT 8"</t>
         </is>
       </c>
-      <c r="Z46" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA46" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB46" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y46" s="0"/>
+      <c r="Z46" s="0"/>
+      <c r="AA46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>37993</v>
@@ -5599,7 +4459,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>38078</v>
@@ -5711,7 +4571,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>40334</v>

--- a/reports/_BTB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_46_.xlsx
+++ b/reports/_BTB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_46_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="257.18988764044946" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="71.28988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="23.0561797752809"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="48.18988764044945"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1621,37 +1621,16 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0" t="inlineStr">
-        <is>
-          <t>LEFT SIDE PANEL CUT 6" (GUM FITTINGS)</t>
-        </is>
-      </c>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Left side panel-(Left side panel)", "LEFT SIDE PANEL CUT 6\" (GUM FITTINGS)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
@@ -1766,37 +1745,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCK BAR BENT 01 PCS</t>
-        </is>
-      </c>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCK BAR BENT 01 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
@@ -1999,37 +1957,16 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR BOTTOM GASKET LOOSE FULLY</t>
-        </is>
-      </c>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BOTTOM GASKET LOOSE FULLY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
@@ -2256,70 +2193,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY &amp; RUSTED</t>
-        </is>
-      </c>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY &amp; RUSTED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0" t="inlineStr">
-        <is>
-          <t>FRONT PANEL DENTED 36"X36"</t>
-        </is>
-      </c>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Front panel -(Front panel )", "FRONT PANEL DENTED 36\"X36\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
@@ -2882,37 +2777,16 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
@@ -3027,70 +2901,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
-      <c r="R24" s="0"/>
-      <c r="S24" s="0"/>
-      <c r="T24" s="0"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="0"/>
-      <c r="W24" s="0"/>
-      <c r="X24" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD WOOD FITTING 05 PCS &amp; SCRWO MISSING 6 PCS</t>
-        </is>
-      </c>
-      <c r="Y24" s="0"/>
-      <c r="Z24" s="0"/>
-      <c r="AA24" s="0"/>
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD WOOD FITTING 05 PCS &amp; SCRWO MISSING 6 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="0"/>
-      <c r="W25" s="0"/>
-      <c r="X25" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR LOCKING BAR BENT 01 PCS</t>
-        </is>
-      </c>
-      <c r="Y25" s="0"/>
-      <c r="Z25" s="0"/>
-      <c r="AA25" s="0"/>
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKING BAR BENT 01 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
@@ -3205,37 +3037,16 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD WOOD FITTING 04 PEC</t>
-        </is>
-      </c>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
-      <c r="AA27" s="0"/>
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD WOOD FITTING 04 PEC", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
@@ -3438,136 +3249,52 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="0"/>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BROKEN 12"X12" AT 2 PLASE,</t>
-        </is>
-      </c>
-      <c r="Y30" s="0"/>
-      <c r="Z30" s="0"/>
-      <c r="AA30" s="0"/>
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BROKEN 12\"X12\" AT 2 PLASE,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
-      <c r="L31" s="0"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="0"/>
-      <c r="O31" s="0"/>
-      <c r="P31" s="0"/>
-      <c r="Q31" s="0"/>
-      <c r="R31" s="0"/>
-      <c r="S31" s="0"/>
-      <c r="T31" s="0"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="0"/>
-      <c r="W31" s="0"/>
-      <c r="X31" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL CUT 8"</t>
-        </is>
-      </c>
-      <c r="Y31" s="0"/>
-      <c r="Z31" s="0"/>
-      <c r="AA31" s="0"/>
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL CUT 8\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="0"/>
-      <c r="O32" s="0"/>
-      <c r="P32" s="0"/>
-      <c r="Q32" s="0"/>
-      <c r="R32" s="0"/>
-      <c r="S32" s="0"/>
-      <c r="T32" s="0"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="0"/>
-      <c r="W32" s="0"/>
-      <c r="X32" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT SIDE PANEL CUT 4" AT 3 PLASE,</t>
-        </is>
-      </c>
-      <c r="Y32" s="0"/>
-      <c r="Z32" s="0"/>
-      <c r="AA32" s="0"/>
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL CUT 4\" AT 3 PLASE,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
-      <c r="L33" s="0"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="0"/>
-      <c r="O33" s="0"/>
-      <c r="P33" s="0"/>
-      <c r="Q33" s="0"/>
-      <c r="R33" s="0"/>
-      <c r="S33" s="0"/>
-      <c r="T33" s="0"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="0"/>
-      <c r="W33" s="0"/>
-      <c r="X33" s="0" t="inlineStr">
-        <is>
-          <t>BOTH DOOR HINGS BENT 4 PCS(DOOR UN LOCK)</t>
-        </is>
-      </c>
-      <c r="Y33" s="0"/>
-      <c r="Z33" s="0"/>
-      <c r="AA33" s="0"/>
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR HINGS BENT 4 PCS(DOOR UN LOCK)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
@@ -3682,169 +3409,64 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
-      <c r="L35" s="0"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="0"/>
-      <c r="O35" s="0"/>
-      <c r="P35" s="0"/>
-      <c r="Q35" s="0"/>
-      <c r="R35" s="0"/>
-      <c r="S35" s="0"/>
-      <c r="T35" s="0"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="0"/>
-      <c r="W35" s="0"/>
-      <c r="X35" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD PICKUP 24"X24"</t>
-        </is>
-      </c>
-      <c r="Y35" s="0"/>
-      <c r="Z35" s="0"/>
-      <c r="AA35" s="0"/>
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD PICKUP 24\"X24\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
-      <c r="K36" s="0"/>
-      <c r="L36" s="0"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="0"/>
-      <c r="O36" s="0"/>
-      <c r="P36" s="0"/>
-      <c r="Q36" s="0"/>
-      <c r="R36" s="0"/>
-      <c r="S36" s="0"/>
-      <c r="T36" s="0"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="0"/>
-      <c r="W36" s="0"/>
-      <c r="X36" s="0" t="inlineStr">
-        <is>
-          <t>FRONT PANEL CUT 2"</t>
-        </is>
-      </c>
-      <c r="Y36" s="0"/>
-      <c r="Z36" s="0"/>
-      <c r="AA36" s="0"/>
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Front panel -(Front panel )", "FRONT PANEL CUT 2\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
-      <c r="K37" s="0"/>
-      <c r="L37" s="0"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="0"/>
-      <c r="O37" s="0"/>
-      <c r="P37" s="0"/>
-      <c r="Q37" s="0"/>
-      <c r="R37" s="0"/>
-      <c r="S37" s="0"/>
-      <c r="T37" s="0"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="0"/>
-      <c r="W37" s="0"/>
-      <c r="X37" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT SIDE PANEL CUT 2"X2" AT 4 PLASE,</t>
-        </is>
-      </c>
-      <c r="Y37" s="0"/>
-      <c r="Z37" s="0"/>
-      <c r="AA37" s="0"/>
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL CUT 2\"X2\" AT 4 PLASE,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="0"/>
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
-      <c r="K38" s="0"/>
-      <c r="L38" s="0"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="0"/>
-      <c r="O38" s="0"/>
-      <c r="P38" s="0"/>
-      <c r="Q38" s="0"/>
-      <c r="R38" s="0"/>
-      <c r="S38" s="0"/>
-      <c r="T38" s="0"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="0"/>
-      <c r="W38" s="0"/>
-      <c r="X38" s="0" t="inlineStr">
-        <is>
-          <t>LEFT SIDE PANEL CUT 2"X2"</t>
-        </is>
-      </c>
-      <c r="Y38" s="0"/>
-      <c r="Z38" s="0"/>
-      <c r="AA38" s="0"/>
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Left side panel-(Left side panel)", "LEFT SIDE PANEL CUT 2\"X2\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="0"/>
-      <c r="B39" s="0"/>
-      <c r="C39" s="0"/>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-      <c r="I39" s="0"/>
-      <c r="J39" s="0"/>
-      <c r="K39" s="0"/>
-      <c r="L39" s="0"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="0"/>
-      <c r="O39" s="0"/>
-      <c r="P39" s="0"/>
-      <c r="Q39" s="0"/>
-      <c r="R39" s="0"/>
-      <c r="S39" s="0"/>
-      <c r="T39" s="0"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="0"/>
-      <c r="W39" s="0"/>
-      <c r="X39" s="0" t="inlineStr">
-        <is>
-          <t>BOTH SIDE PANEL PUSH OUT 40"X40"</t>
-        </is>
-      </c>
-      <c r="Y39" s="0"/>
-      <c r="Z39" s="0"/>
-      <c r="AA39" s="0"/>
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "BOTH SIDE PANEL PUSH OUT 40\"X40\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
@@ -4135,70 +3757,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0"/>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-      <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
-      <c r="K43" s="0"/>
-      <c r="L43" s="0"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="0"/>
-      <c r="O43" s="0"/>
-      <c r="P43" s="0"/>
-      <c r="Q43" s="0"/>
-      <c r="R43" s="0"/>
-      <c r="S43" s="0"/>
-      <c r="T43" s="0"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="0"/>
-      <c r="W43" s="0"/>
-      <c r="X43" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT SIDE PANEL CUT 2" &amp; LEFT SIDE PANEL CUT 2" AT  2 PLC </t>
-        </is>
-      </c>
-      <c r="Y43" s="0"/>
-      <c r="Z43" s="0"/>
-      <c r="AA43" s="0"/>
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL CUT 2\" &amp; LEFT SIDE PANEL CUT 2\" AT  2 PLC ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
-      <c r="I44" s="0"/>
-      <c r="J44" s="0"/>
-      <c r="K44" s="0"/>
-      <c r="L44" s="0"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="0"/>
-      <c r="O44" s="0"/>
-      <c r="P44" s="0"/>
-      <c r="Q44" s="0"/>
-      <c r="R44" s="0"/>
-      <c r="S44" s="0"/>
-      <c r="T44" s="0"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="0"/>
-      <c r="W44" s="0"/>
-      <c r="X44" s="0" t="inlineStr">
-        <is>
-          <t>BOTH OUT SIDE PANEL TWISTED </t>
-        </is>
-      </c>
-      <c r="Y44" s="0"/>
-      <c r="Z44" s="0"/>
-      <c r="AA44" s="0"/>
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "BOTH OUT SIDE PANEL TWISTED ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
@@ -4313,37 +3893,16 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0"/>
-      <c r="B46" s="0"/>
-      <c r="C46" s="0"/>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
-      <c r="I46" s="0"/>
-      <c r="J46" s="0"/>
-      <c r="K46" s="0"/>
-      <c r="L46" s="0"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="0"/>
-      <c r="O46" s="0"/>
-      <c r="P46" s="0"/>
-      <c r="Q46" s="0"/>
-      <c r="R46" s="0"/>
-      <c r="S46" s="0"/>
-      <c r="T46" s="0"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="0"/>
-      <c r="W46" s="0"/>
-      <c r="X46" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR BOTTOM GASKET CUT 8"</t>
-        </is>
-      </c>
-      <c r="Y46" s="0"/>
-      <c r="Z46" s="0"/>
-      <c r="AA46" s="0"/>
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BOTTOM GASKET CUT 8\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">

--- a/reports/_BTB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_46_.xlsx
+++ b/reports/_BTB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_46_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="257.18988764044946" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="23.0561797752809"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="48.18988764044945"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="71.28988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1626,9 +1626,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Left side panel-(Left side panel)", "LEFT SIDE PANEL CUT 6\" (GUM FITTINGS)", "", "", ""]</t>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>Left side panel-(Left side panel)</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t>LEFT SIDE PANEL CUT 6" (GUM FITTINGS)</t>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1750,9 +1796,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCK BAR BENT 01 PCS", "", "", ""]</t>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCK BAR BENT 01 PCS</t>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB9" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1962,9 +2054,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BOTTOM GASKET LOOSE FULLY", "", "", ""]</t>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X12" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y12" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR BOTTOM GASKET LOOSE FULLY</t>
+        </is>
+      </c>
+      <c r="Z12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB12" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2198,9 +2336,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY &amp; RUSTED", "", "", ""]</t>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY &amp; RUSTED</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB15" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2210,9 +2394,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Front panel -(Front panel )", "FRONT PANEL DENTED 36\"X36\"", "", "", ""]</t>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X16" s="0" t="inlineStr">
+        <is>
+          <t>Front panel -(Front panel )</t>
+        </is>
+      </c>
+      <c r="Y16" s="0" t="inlineStr">
+        <is>
+          <t>FRONT PANEL DENTED 36"X36"</t>
+        </is>
+      </c>
+      <c r="Z16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB16" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2782,9 +3012,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY SCRATCHED", "", "", ""]</t>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y22" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB22" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2906,9 +3182,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD WOOD FITTING 05 PCS &amp; SCRWO MISSING 6 PCS", "", "", ""]</t>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X24" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y24" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD WOOD FITTING 05 PCS &amp; SCRWO MISSING 6 PCS</t>
+        </is>
+      </c>
+      <c r="Z24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB24" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2918,9 +3240,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKING BAR BENT 01 PCS", "", "", ""]</t>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X25" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y25" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR LOCKING BAR BENT 01 PCS</t>
+        </is>
+      </c>
+      <c r="Z25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB25" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3042,9 +3410,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD WOOD FITTING 04 PEC", "", "", ""]</t>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X27" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y27" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD WOOD FITTING 04 PEC</t>
+        </is>
+      </c>
+      <c r="Z27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB27" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3254,9 +3668,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BROKEN 12\"X12\" AT 2 PLASE,", "", "", ""]</t>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X30" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y30" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BROKEN 12"X12" AT 2 PLASE,</t>
+        </is>
+      </c>
+      <c r="Z30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB30" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3266,9 +3726,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL CUT 8\"", "", "", ""]</t>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X31" s="0" t="inlineStr">
+        <is>
+          <t>Roof panel-(Roof panel)</t>
+        </is>
+      </c>
+      <c r="Y31" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL CUT 8"</t>
+        </is>
+      </c>
+      <c r="Z31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB31" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3278,9 +3784,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL CUT 4\" AT 3 PLASE,", "", "", ""]</t>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X32" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y32" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE PANEL CUT 4" AT 3 PLASE,</t>
+        </is>
+      </c>
+      <c r="Z32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB32" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3290,9 +3842,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR HINGS BENT 4 PCS(DOOR UN LOCK)", "", "", ""]</t>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X33" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y33" s="0" t="inlineStr">
+        <is>
+          <t>BOTH DOOR HINGS BENT 4 PCS(DOOR UN LOCK)</t>
+        </is>
+      </c>
+      <c r="Z33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB33" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3414,9 +4012,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD PICKUP 24\"X24\"", "", "", ""]</t>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X35" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y35" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD PICKUP 24"X24"</t>
+        </is>
+      </c>
+      <c r="Z35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB35" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3426,9 +4070,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Front panel -(Front panel )", "FRONT PANEL CUT 2\"", "", "", ""]</t>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
+      <c r="S36" s="0"/>
+      <c r="T36" s="0"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="0"/>
+      <c r="W36" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X36" s="0" t="inlineStr">
+        <is>
+          <t>Front panel -(Front panel )</t>
+        </is>
+      </c>
+      <c r="Y36" s="0" t="inlineStr">
+        <is>
+          <t>FRONT PANEL CUT 2"</t>
+        </is>
+      </c>
+      <c r="Z36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB36" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3438,9 +4128,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL CUT 2\"X2\" AT 4 PLASE,", "", "", ""]</t>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
+      <c r="S37" s="0"/>
+      <c r="T37" s="0"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X37" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y37" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE PANEL CUT 2"X2" AT 4 PLASE,</t>
+        </is>
+      </c>
+      <c r="Z37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB37" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3450,9 +4186,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Left side panel-(Left side panel)", "LEFT SIDE PANEL CUT 2\"X2\"", "", "", ""]</t>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="T38" s="0"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="0"/>
+      <c r="W38" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X38" s="0" t="inlineStr">
+        <is>
+          <t>Left side panel-(Left side panel)</t>
+        </is>
+      </c>
+      <c r="Y38" s="0" t="inlineStr">
+        <is>
+          <t>LEFT SIDE PANEL CUT 2"X2"</t>
+        </is>
+      </c>
+      <c r="Z38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB38" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3462,9 +4244,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "BOTH SIDE PANEL PUSH OUT 40\"X40\"", "", "", ""]</t>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
+      <c r="R39" s="0"/>
+      <c r="S39" s="0"/>
+      <c r="T39" s="0"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="0"/>
+      <c r="W39" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X39" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y39" s="0" t="inlineStr">
+        <is>
+          <t>BOTH SIDE PANEL PUSH OUT 40"X40"</t>
+        </is>
+      </c>
+      <c r="Z39" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA39" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB39" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3762,9 +4590,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL CUT 2\" &amp; LEFT SIDE PANEL CUT 2\" AT  2 PLC ", "", "", ""]</t>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="0"/>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
+      <c r="S43" s="0"/>
+      <c r="T43" s="0"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X43" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y43" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE PANEL CUT 2" &amp; LEFT SIDE PANEL CUT 2" AT  2 PLC </t>
+        </is>
+      </c>
+      <c r="Z43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB43" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3774,9 +4648,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B44" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "BOTH OUT SIDE PANEL TWISTED ", "", "", ""]</t>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="0"/>
+      <c r="O44" s="0"/>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
+      <c r="S44" s="0"/>
+      <c r="T44" s="0"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="0"/>
+      <c r="W44" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X44" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y44" s="0" t="inlineStr">
+        <is>
+          <t>BOTH OUT SIDE PANEL TWISTED </t>
+        </is>
+      </c>
+      <c r="Z44" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA44" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB44" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3898,9 +4818,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B46" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BOTTOM GASKET CUT 8\"", "", "", ""]</t>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="0"/>
+      <c r="O46" s="0"/>
+      <c r="P46" s="0"/>
+      <c r="Q46" s="0"/>
+      <c r="R46" s="0"/>
+      <c r="S46" s="0"/>
+      <c r="T46" s="0"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="0"/>
+      <c r="W46" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X46" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y46" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR BOTTOM GASKET CUT 8"</t>
+        </is>
+      </c>
+      <c r="Z46" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA46" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB46" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_BTB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_46_.xlsx
+++ b/reports/_BTB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_46_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:23</t>
+          <t>Total number of containers:23</t>
         </is>
       </c>
     </row>
